--- a/data/BppTrend/CAA Valuation Factors Sample.xlsx
+++ b/data/BppTrend/CAA Valuation Factors Sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_81B380F5E0A1C6458913F708DD214E5782F171FB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="16" r:id="rId1"/>
@@ -18,14 +17,12 @@
     <sheet name="Elec. Slot Machines Val Factors" sheetId="14" r:id="rId3"/>
     <sheet name="Mech. Slot Machines Val Factors" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Tab</t>
   </si>
@@ -82,14 +79,11 @@
   <si>
     <t xml:space="preserve">Mechanical Slot Machines &amp; Other Gaming Equipment </t>
   </si>
-  <si>
-    <t>dsah</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -137,7 +131,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -147,11 +141,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,23 +244,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -299,23 +279,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -554,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -577,79 +540,88 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>2012</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
         <v>2011</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -668,66 +640,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>2012</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
+    <row r="10" spans="1:2">
+      <c r="A10" s="3">
         <v>2011</v>
       </c>
-      <c r="B9" s="1">
-        <v>5</v>
+      <c r="B10" s="1">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -736,11 +716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -760,129 +740,137 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>2019</v>
+      </c>
+      <c r="B2" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="2">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="2">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B15" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>2004</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3">
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
         <v>2003</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>7</v>
       </c>
     </row>
@@ -892,12 +880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -1114,7 +1096,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1123,14 +1105,44 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{776E15DF-FD92-4098-830A-BCD94A53755E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="928b0ed4-59de-4866-ab39-c285c276cabe"/>
+    <ds:schemaRef ds:uri="10427840-475b-49c9-8fdb-b62ed56f40ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{776E15DF-FD92-4098-830A-BCD94A53755E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/BppTrend/CAA Valuation Factors Sample.xlsx
+++ b/data/BppTrend/CAA Valuation Factors Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BppTrend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Tab</t>
   </si>
@@ -78,13 +78,19 @@
   </si>
   <si>
     <t xml:space="preserve">Mechanical Slot Machines &amp; Other Gaming Equipment </t>
+  </si>
+  <si>
+    <t>Junk_A</t>
+  </si>
+  <si>
+    <t>Junk_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +107,11 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -142,6 +153,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -457,17 +471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -520,13 +534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,16 +554,16 @@
       <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B2">
-        <v>59</v>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
-      <c r="B3">
-        <v>53</v>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -620,14 +632,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -642,16 +652,16 @@
       <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B2">
-        <v>75</v>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
-      <c r="B3">
-        <v>60</v>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -719,15 +729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -742,16 +750,16 @@
       <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B2" s="2">
-        <v>95</v>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
-      <c r="B3" s="2">
-        <v>87</v>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -880,6 +888,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -1096,15 +1113,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1112,6 +1120,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{776E15DF-FD92-4098-830A-BCD94A53755E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1130,14 +1146,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
   <ds:schemaRefs>

--- a/data/BppTrend/CAA Valuation Factors Sample.xlsx
+++ b/data/BppTrend/CAA Valuation Factors Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BppTrend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Tab</t>
   </si>
@@ -78,13 +78,19 @@
   </si>
   <si>
     <t xml:space="preserve">Mechanical Slot Machines &amp; Other Gaming Equipment </t>
+  </si>
+  <si>
+    <t>Junk_A</t>
+  </si>
+  <si>
+    <t>Junk_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +107,11 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -142,6 +153,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -457,17 +471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -520,13 +534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,16 +554,16 @@
       <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B2">
-        <v>59</v>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
-      <c r="B3">
-        <v>53</v>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -621,13 +633,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -642,16 +654,16 @@
       <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B2">
-        <v>75</v>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
-      <c r="B3">
-        <v>60</v>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -720,14 +732,14 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -742,16 +754,16 @@
       <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B2" s="2">
-        <v>95</v>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
-      <c r="B3" s="2">
-        <v>87</v>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -880,6 +892,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -1096,7 +1114,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1105,13 +1123,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{776E15DF-FD92-4098-830A-BCD94A53755E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1130,19 +1151,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>